--- a/resources/OrderBackup.xlsx
+++ b/resources/OrderBackup.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="209">
   <si>
     <t>Type</t>
   </si>
@@ -53,139 +53,142 @@
     <t>Product Name</t>
   </si>
   <si>
+    <t>Amaryll</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>62.5</t>
+  </si>
+  <si>
+    <t>Loose Carrots, 25 lbs/bag</t>
+  </si>
+  <si>
+    <t>07/28/2022</t>
+  </si>
+  <si>
+    <t>RDF 2</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Loose Carrots</t>
   </si>
   <si>
-    <t>Amaryll</t>
-  </si>
-  <si>
-    <t>07/28/2022</t>
+    <t>Invoice</t>
+  </si>
+  <si>
+    <t>Boulette's LLC</t>
+  </si>
+  <si>
+    <t>25 lbs/bag</t>
+  </si>
+  <si>
+    <t>CAR25</t>
   </si>
   <si>
     <t>10882</t>
   </si>
   <si>
-    <t>25 lbs/bag</t>
-  </si>
-  <si>
-    <t>RDF 2</t>
-  </si>
-  <si>
-    <t>Loose Carrots, 25 lbs/bag</t>
-  </si>
-  <si>
-    <t>Boulette's LLC</t>
-  </si>
-  <si>
-    <t>62.5</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>CAR25</t>
-  </si>
-  <si>
-    <t>Invoice</t>
+    <t>66.0</t>
+  </si>
+  <si>
+    <t>Mixed Medley Cherry Tomatoes, 12 pts/cs</t>
+  </si>
+  <si>
+    <t>07/28/2023</t>
   </si>
   <si>
     <t>Mixed Medley Cherry Tomatoes</t>
   </si>
   <si>
-    <t>07/28/2023</t>
-  </si>
-  <si>
     <t>12 pts/cs</t>
   </si>
   <si>
-    <t>Mixed Medley Cherry Tomatoes, 12 pts/cs</t>
-  </si>
-  <si>
-    <t>66.0</t>
-  </si>
-  <si>
     <t>MXMCT</t>
   </si>
   <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>55.0</t>
+  </si>
+  <si>
+    <t>Bi-Color Sweet Corn, 48 ct/cs</t>
+  </si>
+  <si>
+    <t>07/28/2024</t>
+  </si>
+  <si>
     <t>Bi-Color Sweet Corn</t>
   </si>
   <si>
-    <t>07/28/2024</t>
-  </si>
-  <si>
     <t>48 ct/cs</t>
   </si>
   <si>
-    <t>Bi-Color Sweet Corn, 48 ct/cs</t>
-  </si>
-  <si>
-    <t>55.0</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
     <t>BICO48</t>
   </si>
   <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>Yellow Onions, 25 lbs/cs</t>
+  </si>
+  <si>
+    <t>07/28/2025</t>
+  </si>
+  <si>
     <t>Yellow Onions</t>
   </si>
   <si>
-    <t>07/28/2025</t>
-  </si>
-  <si>
     <t>25 lbs/cs</t>
   </si>
   <si>
-    <t>Yellow Onions, 25 lbs/cs</t>
-  </si>
-  <si>
-    <t>40.0</t>
-  </si>
-  <si>
     <t>YO25</t>
   </si>
   <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>Cherokee Chocolate Tomatoes, 10 lbs/cs</t>
+  </si>
+  <si>
+    <t>07/28/2026</t>
+  </si>
+  <si>
     <t>Cherokee Chocolate Tomatoes</t>
   </si>
   <si>
-    <t>07/28/2026</t>
-  </si>
-  <si>
     <t>10 lbs/cs</t>
   </si>
   <si>
-    <t>Cherokee Chocolate Tomatoes, 10 lbs/cs</t>
-  </si>
-  <si>
-    <t>60.0</t>
-  </si>
-  <si>
     <t>CCHT10</t>
   </si>
   <si>
+    <t>Tyler</t>
+  </si>
+  <si>
+    <t>Sweet 100 Cherry Tomatoes, 12 pts/cs</t>
+  </si>
+  <si>
+    <t>07/27/2022</t>
+  </si>
+  <si>
     <t>Sweet 100 Cherry Tomatoes</t>
   </si>
   <si>
-    <t>Tyler</t>
-  </si>
-  <si>
-    <t>07/27/2022</t>
+    <t>Cellarmaker Brewing Company</t>
+  </si>
+  <si>
+    <t>SW100CT</t>
   </si>
   <si>
     <t>10875</t>
   </si>
   <si>
-    <t>Sweet 100 Cherry Tomatoes, 12 pts/cs</t>
-  </si>
-  <si>
-    <t>Cellarmaker Brewing Company</t>
-  </si>
-  <si>
-    <t>SW100CT</t>
+    <t>Early Girl Tomatoes, 20 lbs/cs</t>
   </si>
   <si>
     <t>Early Girl Tomatoes</t>
@@ -194,37 +197,43 @@
     <t>20 lbs/cs</t>
   </si>
   <si>
-    <t>Early Girl Tomatoes, 20 lbs/cs</t>
-  </si>
-  <si>
     <t>EGT20</t>
   </si>
   <si>
+    <t>Nikki</t>
+  </si>
+  <si>
+    <t>35.7</t>
+  </si>
+  <si>
+    <t>Genovese Basil, 24 bu/cs</t>
+  </si>
+  <si>
+    <t>Farm P/U</t>
+  </si>
+  <si>
     <t>Genovese Basil</t>
   </si>
   <si>
-    <t>Nikki</t>
+    <t>Farm Shop</t>
+  </si>
+  <si>
+    <t>24 bu/cs</t>
+  </si>
+  <si>
+    <t>BAS24</t>
   </si>
   <si>
     <t>10881</t>
   </si>
   <si>
-    <t>24 bu/cs</t>
-  </si>
-  <si>
-    <t>Farm P/U</t>
-  </si>
-  <si>
-    <t>Genovese Basil, 24 bu/cs</t>
-  </si>
-  <si>
-    <t>Farm Shop</t>
-  </si>
-  <si>
-    <t>35.7</t>
-  </si>
-  <si>
-    <t>BAS24</t>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>Green Cabbage, 40 bs/cs</t>
   </si>
   <si>
     <t>Green Cabbage</t>
@@ -233,97 +242,403 @@
     <t>40 bs/cs</t>
   </si>
   <si>
-    <t>Green Cabbage, 40 bs/cs</t>
-  </si>
-  <si>
-    <t>34.0</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
     <t>GC40</t>
   </si>
   <si>
+    <t>39.1</t>
+  </si>
+  <si>
+    <t>Pickling Cucumbers, 22 lbs/cs</t>
+  </si>
+  <si>
     <t>Pickling Cucumbers</t>
   </si>
   <si>
     <t>22 lbs/cs</t>
   </si>
   <si>
-    <t>Pickling Cucumbers, 22 lbs/cs</t>
-  </si>
-  <si>
-    <t>39.1</t>
-  </si>
-  <si>
     <t>PCU22</t>
   </si>
   <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>44.62</t>
+  </si>
+  <si>
+    <t>Green Beans, 10 lbs/cs</t>
+  </si>
+  <si>
     <t>Green Beans</t>
   </si>
   <si>
-    <t>Green Beans, 10 lbs/cs</t>
-  </si>
-  <si>
-    <t>44.62</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
     <t>GB10</t>
   </si>
   <si>
+    <t>31.87</t>
+  </si>
+  <si>
+    <t>Muskmelons, 30 lbs/cs</t>
+  </si>
+  <si>
     <t>Muskmelons</t>
   </si>
   <si>
     <t>30 lbs/cs</t>
   </si>
   <si>
-    <t>Muskmelons, 30 lbs/cs</t>
-  </si>
-  <si>
-    <t>31.87</t>
-  </si>
-  <si>
     <t>MUSM30</t>
   </si>
   <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>10.2</t>
+  </si>
+  <si>
+    <t>Oregano, 12 bu/cs</t>
+  </si>
+  <si>
     <t>Oregano</t>
   </si>
   <si>
     <t>12 bu/cs</t>
   </si>
   <si>
-    <t>Oregano, 12 bu/cs</t>
-  </si>
-  <si>
-    <t>10.2</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
     <t>OREG</t>
   </si>
   <si>
+    <t>214672</t>
+  </si>
+  <si>
+    <t>Loose Chioggia Beets, 25 lbs/bag</t>
+  </si>
+  <si>
     <t>Loose Chioggia Beets</t>
   </si>
   <si>
-    <t>214672</t>
+    <t>Good Eggs</t>
+  </si>
+  <si>
+    <t>CHB25</t>
   </si>
   <si>
     <t>10879</t>
   </si>
   <si>
-    <t>Loose Chioggia Beets, 25 lbs/bag</t>
-  </si>
-  <si>
-    <t>Good Eggs</t>
-  </si>
-  <si>
-    <t>CHB25</t>
+    <t>Beth</t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t>44.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extra Fancy Mixed Summer Squash,  22 lbs/cs </t>
+  </si>
+  <si>
+    <t>09/01/2022</t>
+  </si>
+  <si>
+    <t>ThBFM P/U</t>
+  </si>
+  <si>
+    <t>Extra Fancy Mixed Summer Squash</t>
+  </si>
+  <si>
+    <t>Chez Panisse</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22 lbs/cs </t>
+  </si>
+  <si>
+    <t>MXSQ22</t>
+  </si>
+  <si>
+    <t>11258</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extra Fancy Mixed Zucchini Squash,  22lbs/cs </t>
+  </si>
+  <si>
+    <t>Extra Fancy Mixed Zucchini Squash</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22lbs/cs </t>
+  </si>
+  <si>
+    <t>MXZQ22</t>
+  </si>
+  <si>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lemon Cucumbers,  10 lbs/cs </t>
+  </si>
+  <si>
+    <t>Lemon Cucumbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10 lbs/cs </t>
+  </si>
+  <si>
+    <t>LCU10</t>
+  </si>
+  <si>
+    <t>Zoraida</t>
+  </si>
+  <si>
+    <t>67.0</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>Back Fat,  by the pound</t>
+  </si>
+  <si>
+    <t>RDF 1</t>
+  </si>
+  <si>
+    <t>Back Fat</t>
+  </si>
+  <si>
+    <t>El Molino Central</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> by the pound</t>
+  </si>
+  <si>
+    <t>BACK FAT</t>
+  </si>
+  <si>
+    <t>11259</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>Eggs,  Assorted Sizes</t>
+  </si>
+  <si>
+    <t>Eggs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Assorted Sizes</t>
+  </si>
+  <si>
+    <t>AEGG</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choice Tomatoes,  30 lbs/cs </t>
+  </si>
+  <si>
+    <t>Choice Tomatoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30 lbs/cs </t>
+  </si>
+  <si>
+    <t>2T30</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Early Girl Tomatoes,  20 lbs/cs </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20 lbs/cs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outbound lug, </t>
+  </si>
+  <si>
+    <t>Outbound lug</t>
+  </si>
+  <si>
+    <t>LUG</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choice Tomatoes,  20 lbs/cs </t>
+  </si>
+  <si>
+    <t>Guinda Commons</t>
+  </si>
+  <si>
+    <t>2T20</t>
+  </si>
+  <si>
+    <t>11256</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixed Heirloom Tomatoes,  10 lbs/cs </t>
+  </si>
+  <si>
+    <t>Mixed Heirloom Tomatoes</t>
+  </si>
+  <si>
+    <t>MXHT10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixed Watermelon,  30 lbs/cs </t>
+  </si>
+  <si>
+    <t>Mixed Watermelon</t>
+  </si>
+  <si>
+    <t>MXWM30</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Painted Serpent Cucumbers,  10 lbs/cs </t>
+  </si>
+  <si>
+    <t>Painted Serpent Cucumbers</t>
+  </si>
+  <si>
+    <t>PSCU10</t>
+  </si>
+  <si>
+    <t>Caitlin</t>
+  </si>
+  <si>
+    <t>37.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starlight Watermelon,  30lbs/cs </t>
+  </si>
+  <si>
+    <t>Starlight Watermelon</t>
+  </si>
+  <si>
+    <t>Hudson Greens and Goods</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30lbs/cs </t>
+  </si>
+  <si>
+    <t>SLW30</t>
+  </si>
+  <si>
+    <t>11261</t>
+  </si>
+  <si>
+    <t>Cinde</t>
+  </si>
+  <si>
+    <t>Oxbow School</t>
+  </si>
+  <si>
+    <t>11255</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cantaloupe,  30 lbs/cs </t>
+  </si>
+  <si>
+    <t>Cantaloupe</t>
+  </si>
+  <si>
+    <t>CAN30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Globe Eggplant,  20 lbs/cs </t>
+  </si>
+  <si>
+    <t>Globe Eggplant</t>
+  </si>
+  <si>
+    <t>GLE20</t>
+  </si>
+  <si>
+    <t>Cheli</t>
+  </si>
+  <si>
+    <t>Primavera Tamales</t>
+  </si>
+  <si>
+    <t>11260</t>
+  </si>
+  <si>
+    <t>Chuy</t>
+  </si>
+  <si>
+    <t>Saul's</t>
+  </si>
+  <si>
+    <t>11262</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loose Carrots,  25 lbs/bag </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25 lbs/bag </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pickling Cucumbers,  22 lbs/cs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sungold Cherry Tomatoes,  12 pts/cs </t>
+  </si>
+  <si>
+    <t>Sungold Cherry Tomatoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12 pts/cs </t>
+  </si>
+  <si>
+    <t>SGOCT</t>
+  </si>
+  <si>
+    <t>Luke</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>38.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pickling Cucumbers,  25 lbs/cs </t>
+  </si>
+  <si>
+    <t>Wild West Ferments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25 lbs/cs </t>
+  </si>
+  <si>
+    <t>PCU25</t>
+  </si>
+  <si>
+    <t>11257</t>
   </si>
 </sst>
 </file>
@@ -368,7 +683,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -417,353 +732,353 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
         <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
       <c r="M2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
         <v>31</v>
       </c>
       <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
         <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
         <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
         <v>37</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>36</v>
-      </c>
-      <c r="L4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
         <v>44</v>
       </c>
       <c r="I5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" t="s">
         <v>42</v>
-      </c>
-      <c r="J5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
         <v>50</v>
       </c>
       <c r="I6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" t="s">
         <v>48</v>
-      </c>
-      <c r="J6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
         <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" t="s">
         <v>30</v>
       </c>
-      <c r="L7" t="s">
-        <v>28</v>
-      </c>
       <c r="M7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
         <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
         <v>61</v>
       </c>
       <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" t="s">
         <v>60</v>
       </c>
-      <c r="J8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>59</v>
-      </c>
-      <c r="M8" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
         <v>53</v>
       </c>
       <c r="D9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" t="s">
         <v>64</v>
       </c>
-      <c r="E9" t="s">
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s">
         <v>63</v>
       </c>
-      <c r="F9" t="s">
+      <c r="L9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" t="s">
         <v>66</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" t="s">
-        <v>69</v>
-      </c>
-      <c r="L9" t="s">
-        <v>65</v>
-      </c>
-      <c r="M9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
         <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
         <v>76</v>
@@ -772,162 +1087,162 @@
         <v>73</v>
       </c>
       <c r="J10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" t="s">
         <v>75</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="s">
         <v>74</v>
-      </c>
-      <c r="L10" t="s">
-        <v>72</v>
-      </c>
-      <c r="M10" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
         <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
         <v>81</v>
       </c>
       <c r="I11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M11" t="s">
         <v>79</v>
-      </c>
-      <c r="J11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" t="s">
-        <v>80</v>
-      </c>
-      <c r="L11" t="s">
-        <v>78</v>
-      </c>
-      <c r="M11" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
         <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
         <v>86</v>
       </c>
       <c r="I12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" t="s">
         <v>83</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
+        <v>49</v>
+      </c>
+      <c r="M12" t="s">
         <v>85</v>
-      </c>
-      <c r="K12" t="s">
-        <v>84</v>
-      </c>
-      <c r="L12" t="s">
-        <v>47</v>
-      </c>
-      <c r="M12" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
         <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H13" t="s">
         <v>91</v>
       </c>
       <c r="I13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" t="s">
+        <v>90</v>
+      </c>
+      <c r="M13" t="s">
         <v>89</v>
-      </c>
-      <c r="J13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" t="s">
-        <v>90</v>
-      </c>
-      <c r="L13" t="s">
-        <v>88</v>
-      </c>
-      <c r="M13" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
         <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
         <v>97</v>
@@ -936,57 +1251,1164 @@
         <v>94</v>
       </c>
       <c r="J14" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" t="s">
+        <v>93</v>
+      </c>
+      <c r="L14" t="s">
         <v>96</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="s">
         <v>95</v>
-      </c>
-      <c r="L14" t="s">
-        <v>93</v>
-      </c>
-      <c r="M14" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
         <v>53</v>
       </c>
       <c r="D15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" t="s">
+        <v>102</v>
+      </c>
+      <c r="I15" t="s">
+        <v>99</v>
+      </c>
+      <c r="J15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" t="s">
         <v>100</v>
       </c>
-      <c r="E15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" t="s">
-        <v>103</v>
-      </c>
-      <c r="I15" t="s">
-        <v>101</v>
-      </c>
-      <c r="J15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" t="s">
-        <v>43</v>
-      </c>
-      <c r="L15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M15" t="s">
-        <v>98</v>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" t="s">
+        <v>113</v>
+      </c>
+      <c r="I16" t="s">
+        <v>107</v>
+      </c>
+      <c r="J16" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" t="s">
+        <v>106</v>
+      </c>
+      <c r="L16" t="s">
+        <v>112</v>
+      </c>
+      <c r="M16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" t="s">
+        <v>119</v>
+      </c>
+      <c r="I17" t="s">
+        <v>116</v>
+      </c>
+      <c r="J17" t="s">
+        <v>115</v>
+      </c>
+      <c r="K17" t="s">
+        <v>106</v>
+      </c>
+      <c r="L17" t="s">
+        <v>118</v>
+      </c>
+      <c r="M17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" t="s">
+        <v>124</v>
+      </c>
+      <c r="I18" t="s">
+        <v>121</v>
+      </c>
+      <c r="J18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" t="s">
+        <v>120</v>
+      </c>
+      <c r="L18" t="s">
+        <v>123</v>
+      </c>
+      <c r="M18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" t="s">
+        <v>133</v>
+      </c>
+      <c r="I19" t="s">
+        <v>128</v>
+      </c>
+      <c r="J19" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" t="s">
+        <v>127</v>
+      </c>
+      <c r="L19" t="s">
+        <v>132</v>
+      </c>
+      <c r="M19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" t="s">
+        <v>140</v>
+      </c>
+      <c r="I20" t="s">
+        <v>137</v>
+      </c>
+      <c r="J20" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" t="s">
+        <v>139</v>
+      </c>
+      <c r="M20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" t="s">
+        <v>129</v>
+      </c>
+      <c r="G21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" t="s">
+        <v>145</v>
+      </c>
+      <c r="I21" t="s">
+        <v>142</v>
+      </c>
+      <c r="J21" t="s">
+        <v>135</v>
+      </c>
+      <c r="K21" t="s">
+        <v>141</v>
+      </c>
+      <c r="L21" t="s">
+        <v>144</v>
+      </c>
+      <c r="M21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" t="s">
+        <v>147</v>
+      </c>
+      <c r="J22" t="s">
+        <v>146</v>
+      </c>
+      <c r="K22" t="s">
+        <v>45</v>
+      </c>
+      <c r="L22" t="s">
+        <v>148</v>
+      </c>
+      <c r="M22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" t="s">
+        <v>113</v>
+      </c>
+      <c r="I23" t="s">
+        <v>107</v>
+      </c>
+      <c r="J23" t="s">
+        <v>92</v>
+      </c>
+      <c r="K23" t="s">
+        <v>106</v>
+      </c>
+      <c r="L23" t="s">
+        <v>112</v>
+      </c>
+      <c r="M23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" t="s">
+        <v>129</v>
+      </c>
+      <c r="G24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" t="s">
+        <v>151</v>
+      </c>
+      <c r="I24" t="s">
+        <v>149</v>
+      </c>
+      <c r="J24" t="s">
+        <v>135</v>
+      </c>
+      <c r="K24" t="s">
+        <v>71</v>
+      </c>
+      <c r="L24" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" t="s">
+        <v>151</v>
+      </c>
+      <c r="I25" t="s">
+        <v>149</v>
+      </c>
+      <c r="J25" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" t="s">
+        <v>71</v>
+      </c>
+      <c r="L25" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E26" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" t="s">
+        <v>156</v>
+      </c>
+      <c r="I26" t="s">
+        <v>154</v>
+      </c>
+      <c r="J26" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" t="s">
+        <v>153</v>
+      </c>
+      <c r="L26" t="s">
+        <v>148</v>
+      </c>
+      <c r="M26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E27" t="s">
+        <v>152</v>
+      </c>
+      <c r="F27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" t="s">
+        <v>161</v>
+      </c>
+      <c r="I27" t="s">
+        <v>159</v>
+      </c>
+      <c r="J27" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" t="s">
+        <v>158</v>
+      </c>
+      <c r="L27" t="s">
+        <v>123</v>
+      </c>
+      <c r="M27" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" t="s">
+        <v>157</v>
+      </c>
+      <c r="E28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F28" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" t="s">
+        <v>164</v>
+      </c>
+      <c r="I28" t="s">
+        <v>162</v>
+      </c>
+      <c r="J28" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L28" t="s">
+        <v>144</v>
+      </c>
+      <c r="M28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E29" t="s">
+        <v>152</v>
+      </c>
+      <c r="F29" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" t="s">
+        <v>168</v>
+      </c>
+      <c r="I29" t="s">
+        <v>166</v>
+      </c>
+      <c r="J29" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" t="s">
+        <v>165</v>
+      </c>
+      <c r="L29" t="s">
+        <v>123</v>
+      </c>
+      <c r="M29" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>173</v>
+      </c>
+      <c r="C30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30" t="s">
+        <v>169</v>
+      </c>
+      <c r="F30" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" t="s">
+        <v>175</v>
+      </c>
+      <c r="I30" t="s">
+        <v>171</v>
+      </c>
+      <c r="J30" t="s">
+        <v>92</v>
+      </c>
+      <c r="K30" t="s">
+        <v>170</v>
+      </c>
+      <c r="L30" t="s">
+        <v>174</v>
+      </c>
+      <c r="M30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" t="s">
+        <v>173</v>
+      </c>
+      <c r="C31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" t="s">
+        <v>176</v>
+      </c>
+      <c r="E31" t="s">
+        <v>169</v>
+      </c>
+      <c r="F31" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" t="s">
+        <v>113</v>
+      </c>
+      <c r="I31" t="s">
+        <v>107</v>
+      </c>
+      <c r="J31" t="s">
+        <v>92</v>
+      </c>
+      <c r="K31" t="s">
+        <v>39</v>
+      </c>
+      <c r="L31" t="s">
+        <v>112</v>
+      </c>
+      <c r="M31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" t="s">
+        <v>179</v>
+      </c>
+      <c r="E32" t="s">
+        <v>177</v>
+      </c>
+      <c r="F32" t="s">
+        <v>129</v>
+      </c>
+      <c r="G32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" t="s">
+        <v>161</v>
+      </c>
+      <c r="I32" t="s">
+        <v>159</v>
+      </c>
+      <c r="J32" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" t="s">
+        <v>158</v>
+      </c>
+      <c r="L32" t="s">
+        <v>123</v>
+      </c>
+      <c r="M32" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" t="s">
+        <v>178</v>
+      </c>
+      <c r="C33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" t="s">
+        <v>179</v>
+      </c>
+      <c r="E33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F33" t="s">
+        <v>129</v>
+      </c>
+      <c r="G33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" t="s">
+        <v>183</v>
+      </c>
+      <c r="I33" t="s">
+        <v>181</v>
+      </c>
+      <c r="J33" t="s">
+        <v>180</v>
+      </c>
+      <c r="K33" t="s">
+        <v>39</v>
+      </c>
+      <c r="L33" t="s">
+        <v>144</v>
+      </c>
+      <c r="M33" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" t="s">
+        <v>179</v>
+      </c>
+      <c r="E34" t="s">
+        <v>177</v>
+      </c>
+      <c r="F34" t="s">
+        <v>129</v>
+      </c>
+      <c r="G34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" t="s">
+        <v>186</v>
+      </c>
+      <c r="I34" t="s">
+        <v>184</v>
+      </c>
+      <c r="J34" t="s">
+        <v>32</v>
+      </c>
+      <c r="K34" t="s">
+        <v>39</v>
+      </c>
+      <c r="L34" t="s">
+        <v>148</v>
+      </c>
+      <c r="M34" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" t="s">
+        <v>188</v>
+      </c>
+      <c r="C35" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" t="s">
+        <v>189</v>
+      </c>
+      <c r="E35" t="s">
+        <v>187</v>
+      </c>
+      <c r="F35" t="s">
+        <v>129</v>
+      </c>
+      <c r="G35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" t="s">
+        <v>145</v>
+      </c>
+      <c r="I35" t="s">
+        <v>142</v>
+      </c>
+      <c r="J35" t="s">
+        <v>153</v>
+      </c>
+      <c r="K35" t="s">
+        <v>141</v>
+      </c>
+      <c r="L35" t="s">
+        <v>144</v>
+      </c>
+      <c r="M35" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" t="s">
+        <v>188</v>
+      </c>
+      <c r="C36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" t="s">
+        <v>189</v>
+      </c>
+      <c r="E36" t="s">
+        <v>187</v>
+      </c>
+      <c r="F36" t="s">
+        <v>129</v>
+      </c>
+      <c r="G36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" t="s">
+        <v>151</v>
+      </c>
+      <c r="I36" t="s">
+        <v>149</v>
+      </c>
+      <c r="J36" t="s">
+        <v>153</v>
+      </c>
+      <c r="K36" t="s">
+        <v>71</v>
+      </c>
+      <c r="L36" t="s">
+        <v>19</v>
+      </c>
+      <c r="M36" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" t="s">
+        <v>188</v>
+      </c>
+      <c r="C37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" t="s">
+        <v>189</v>
+      </c>
+      <c r="E37" t="s">
+        <v>187</v>
+      </c>
+      <c r="F37" t="s">
+        <v>129</v>
+      </c>
+      <c r="G37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" t="s">
+        <v>151</v>
+      </c>
+      <c r="I37" t="s">
+        <v>149</v>
+      </c>
+      <c r="J37" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" t="s">
+        <v>71</v>
+      </c>
+      <c r="L37" t="s">
+        <v>19</v>
+      </c>
+      <c r="M37" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" t="s">
+        <v>191</v>
+      </c>
+      <c r="C38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" t="s">
+        <v>192</v>
+      </c>
+      <c r="E38" t="s">
+        <v>190</v>
+      </c>
+      <c r="F38" t="s">
+        <v>109</v>
+      </c>
+      <c r="G38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" t="s">
+        <v>161</v>
+      </c>
+      <c r="I38" t="s">
+        <v>159</v>
+      </c>
+      <c r="J38" t="s">
+        <v>127</v>
+      </c>
+      <c r="K38" t="s">
+        <v>158</v>
+      </c>
+      <c r="L38" t="s">
+        <v>123</v>
+      </c>
+      <c r="M38" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" t="s">
+        <v>191</v>
+      </c>
+      <c r="C39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" t="s">
+        <v>192</v>
+      </c>
+      <c r="E39" t="s">
+        <v>190</v>
+      </c>
+      <c r="F39" t="s">
+        <v>109</v>
+      </c>
+      <c r="G39" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" t="s">
+        <v>194</v>
+      </c>
+      <c r="J39" t="s">
+        <v>193</v>
+      </c>
+      <c r="K39" t="s">
+        <v>15</v>
+      </c>
+      <c r="L39" t="s">
+        <v>195</v>
+      </c>
+      <c r="M39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" t="s">
+        <v>191</v>
+      </c>
+      <c r="C40" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" t="s">
+        <v>192</v>
+      </c>
+      <c r="E40" t="s">
+        <v>190</v>
+      </c>
+      <c r="F40" t="s">
+        <v>109</v>
+      </c>
+      <c r="G40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" t="s">
+        <v>81</v>
+      </c>
+      <c r="I40" t="s">
+        <v>196</v>
+      </c>
+      <c r="J40" t="s">
+        <v>82</v>
+      </c>
+      <c r="K40" t="s">
+        <v>120</v>
+      </c>
+      <c r="L40" t="s">
+        <v>112</v>
+      </c>
+      <c r="M40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" t="s">
+        <v>191</v>
+      </c>
+      <c r="C41" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" t="s">
+        <v>192</v>
+      </c>
+      <c r="E41" t="s">
+        <v>190</v>
+      </c>
+      <c r="F41" t="s">
+        <v>109</v>
+      </c>
+      <c r="G41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" t="s">
+        <v>200</v>
+      </c>
+      <c r="I41" t="s">
+        <v>197</v>
+      </c>
+      <c r="J41" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" t="s">
+        <v>45</v>
+      </c>
+      <c r="L41" t="s">
+        <v>199</v>
+      </c>
+      <c r="M41" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>205</v>
+      </c>
+      <c r="C42" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" t="s">
+        <v>208</v>
+      </c>
+      <c r="E42" t="s">
+        <v>201</v>
+      </c>
+      <c r="F42" t="s">
+        <v>129</v>
+      </c>
+      <c r="G42" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" t="s">
+        <v>207</v>
+      </c>
+      <c r="I42" t="s">
+        <v>204</v>
+      </c>
+      <c r="J42" t="s">
+        <v>202</v>
+      </c>
+      <c r="K42" t="s">
+        <v>203</v>
+      </c>
+      <c r="L42" t="s">
+        <v>206</v>
+      </c>
+      <c r="M42" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/resources/OrderBackup.xlsx
+++ b/resources/OrderBackup.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="148">
   <si>
     <t>Type</t>
   </si>
@@ -51,6 +51,411 @@
   </si>
   <si>
     <t>Product Name</t>
+  </si>
+  <si>
+    <t>ThBFM P/U</t>
+  </si>
+  <si>
+    <t>818181026104</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22 lbs/cs </t>
+  </si>
+  <si>
+    <t>09/01/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extra Fancy Mixed Summer Squash,  22 lbs/cs </t>
+  </si>
+  <si>
+    <t>MXSQ22</t>
+  </si>
+  <si>
+    <t>Invoice</t>
+  </si>
+  <si>
+    <t>11258</t>
+  </si>
+  <si>
+    <t>Chez Panisse</t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t>44.0</t>
+  </si>
+  <si>
+    <t>Extra Fancy Mixed Summer Squash</t>
+  </si>
+  <si>
+    <t>Beth</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22lbs/cs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extra Fancy Mixed Zucchini Squash,  22lbs/cs </t>
+  </si>
+  <si>
+    <t>MXZQ22</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>Extra Fancy Mixed Zucchini Squash</t>
+  </si>
+  <si>
+    <t>818181021550</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10 lbs/cs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lemon Cucumbers,  10 lbs/cs </t>
+  </si>
+  <si>
+    <t>LCU10</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t>Lemon Cucumbers</t>
+  </si>
+  <si>
+    <t>RDF 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> by the pound</t>
+  </si>
+  <si>
+    <t>Back Fat,  by the pound</t>
+  </si>
+  <si>
+    <t>BACK FAT</t>
+  </si>
+  <si>
+    <t>11259</t>
+  </si>
+  <si>
+    <t>El Molino Central</t>
+  </si>
+  <si>
+    <t>67.0</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>Back Fat</t>
+  </si>
+  <si>
+    <t>Zoraida</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Assorted Sizes</t>
+  </si>
+  <si>
+    <t>Eggs,  Assorted Sizes</t>
+  </si>
+  <si>
+    <t>AEGG</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>Eggs</t>
+  </si>
+  <si>
+    <t>818181026807</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30 lbs/cs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choice Tomatoes,  30 lbs/cs </t>
+  </si>
+  <si>
+    <t>2T30</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>Choice Tomatoes</t>
+  </si>
+  <si>
+    <t>818181026975</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20 lbs/cs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Early Girl Tomatoes,  20 lbs/cs </t>
+  </si>
+  <si>
+    <t>EGT20</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>Early Girl Tomatoes</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outbound lug, </t>
+  </si>
+  <si>
+    <t>LUG</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>Outbound lug</t>
+  </si>
+  <si>
+    <t>Farm P/U</t>
+  </si>
+  <si>
+    <t>818181026791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choice Tomatoes,  20 lbs/cs </t>
+  </si>
+  <si>
+    <t>2T20</t>
+  </si>
+  <si>
+    <t>11256</t>
+  </si>
+  <si>
+    <t>Guinda Commons</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>818181027132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixed Heirloom Tomatoes,  10 lbs/cs </t>
+  </si>
+  <si>
+    <t>MXHT10</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>Mixed Heirloom Tomatoes</t>
+  </si>
+  <si>
+    <t>818181027637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixed Watermelon,  30 lbs/cs </t>
+  </si>
+  <si>
+    <t>MXWM30</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>Mixed Watermelon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Painted Serpent Cucumbers,  10 lbs/cs </t>
+  </si>
+  <si>
+    <t>PSCU10</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>Painted Serpent Cucumbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30lbs/cs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starlight Watermelon,  30lbs/cs </t>
+  </si>
+  <si>
+    <t>SLW30</t>
+  </si>
+  <si>
+    <t>11261</t>
+  </si>
+  <si>
+    <t>Hudson Greens and Goods</t>
+  </si>
+  <si>
+    <t>37.5</t>
+  </si>
+  <si>
+    <t>Starlight Watermelon</t>
+  </si>
+  <si>
+    <t>Caitlin</t>
+  </si>
+  <si>
+    <t>11255</t>
+  </si>
+  <si>
+    <t>Oxbow School</t>
+  </si>
+  <si>
+    <t>Cinde</t>
+  </si>
+  <si>
+    <t>818181023790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cantaloupe,  30 lbs/cs </t>
+  </si>
+  <si>
+    <t>CAN30</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>Cantaloupe</t>
+  </si>
+  <si>
+    <t>818181021734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Globe Eggplant,  20 lbs/cs </t>
+  </si>
+  <si>
+    <t>GLE20</t>
+  </si>
+  <si>
+    <t>Globe Eggplant</t>
+  </si>
+  <si>
+    <t>11260</t>
+  </si>
+  <si>
+    <t>Primavera Tamales</t>
+  </si>
+  <si>
+    <t>Cheli</t>
+  </si>
+  <si>
+    <t>11262</t>
+  </si>
+  <si>
+    <t>Saul's</t>
+  </si>
+  <si>
+    <t>Chuy</t>
+  </si>
+  <si>
+    <t>818181020713</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25 lbs/bag </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loose Carrots,  25 lbs/bag </t>
+  </si>
+  <si>
+    <t>CAR25</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>62.5</t>
+  </si>
+  <si>
+    <t>Loose Carrots</t>
+  </si>
+  <si>
+    <t>818181021598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pickling Cucumbers,  22 lbs/cs </t>
+  </si>
+  <si>
+    <t>PCU22</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>Pickling Cucumbers</t>
+  </si>
+  <si>
+    <t>818181021192</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12 pts/cs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sungold Cherry Tomatoes,  12 pts/cs </t>
+  </si>
+  <si>
+    <t>SGOCT</t>
+  </si>
+  <si>
+    <t>Sungold Cherry Tomatoes</t>
+  </si>
+  <si>
+    <t>818181021604</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25 lbs/cs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pickling Cucumbers,  25 lbs/cs </t>
+  </si>
+  <si>
+    <t>PCU25</t>
+  </si>
+  <si>
+    <t>11257</t>
+  </si>
+  <si>
+    <t>Wild West Ferments</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>38.5</t>
+  </si>
+  <si>
+    <t>Luke</t>
   </si>
 </sst>
 </file>
@@ -95,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -142,6 +547,1113 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" t="s">
+        <v>56</v>
+      </c>
+      <c r="M14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15" t="s">
+        <v>94</v>
+      </c>
+      <c r="L15" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" t="s">
+        <v>97</v>
+      </c>
+      <c r="J16" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" t="s">
+        <v>101</v>
+      </c>
+      <c r="L16" t="s">
+        <v>96</v>
+      </c>
+      <c r="M16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" t="s">
+        <v>89</v>
+      </c>
+      <c r="L17" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" t="s">
+        <v>82</v>
+      </c>
+      <c r="J18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" t="s">
+        <v>84</v>
+      </c>
+      <c r="L18" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" t="s">
+        <v>109</v>
+      </c>
+      <c r="I19" t="s">
+        <v>108</v>
+      </c>
+      <c r="J19" t="s">
+        <v>110</v>
+      </c>
+      <c r="K19" t="s">
+        <v>89</v>
+      </c>
+      <c r="L19" t="s">
+        <v>56</v>
+      </c>
+      <c r="M19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" t="s">
+        <v>114</v>
+      </c>
+      <c r="I20" t="s">
+        <v>113</v>
+      </c>
+      <c r="J20" t="s">
+        <v>93</v>
+      </c>
+      <c r="K20" t="s">
+        <v>89</v>
+      </c>
+      <c r="L20" t="s">
+        <v>62</v>
+      </c>
+      <c r="M20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L21" t="s">
+        <v>56</v>
+      </c>
+      <c r="M21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I22" t="s">
+        <v>69</v>
+      </c>
+      <c r="J22" t="s">
+        <v>79</v>
+      </c>
+      <c r="K22" t="s">
+        <v>71</v>
+      </c>
+      <c r="L22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23" t="s">
+        <v>69</v>
+      </c>
+      <c r="J23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" t="s">
+        <v>71</v>
+      </c>
+      <c r="L23" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" t="s">
+        <v>82</v>
+      </c>
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" t="s">
+        <v>84</v>
+      </c>
+      <c r="L24" t="s">
+        <v>33</v>
+      </c>
+      <c r="M24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
+        <v>122</v>
+      </c>
+      <c r="H25" t="s">
+        <v>125</v>
+      </c>
+      <c r="I25" t="s">
+        <v>124</v>
+      </c>
+      <c r="J25" t="s">
+        <v>126</v>
+      </c>
+      <c r="K25" t="s">
+        <v>127</v>
+      </c>
+      <c r="L25" t="s">
+        <v>123</v>
+      </c>
+      <c r="M25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s">
+        <v>129</v>
+      </c>
+      <c r="H26" t="s">
+        <v>131</v>
+      </c>
+      <c r="I26" t="s">
+        <v>130</v>
+      </c>
+      <c r="J26" t="s">
+        <v>132</v>
+      </c>
+      <c r="K26" t="s">
+        <v>37</v>
+      </c>
+      <c r="L26" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
+        <v>134</v>
+      </c>
+      <c r="H27" t="s">
+        <v>137</v>
+      </c>
+      <c r="I27" t="s">
+        <v>136</v>
+      </c>
+      <c r="J27" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27" t="s">
+        <v>66</v>
+      </c>
+      <c r="L27" t="s">
+        <v>135</v>
+      </c>
+      <c r="M27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" t="s">
+        <v>139</v>
+      </c>
+      <c r="H28" t="s">
+        <v>142</v>
+      </c>
+      <c r="I28" t="s">
+        <v>141</v>
+      </c>
+      <c r="J28" t="s">
+        <v>145</v>
+      </c>
+      <c r="K28" t="s">
+        <v>146</v>
+      </c>
+      <c r="L28" t="s">
+        <v>140</v>
+      </c>
+      <c r="M28" t="s">
+        <v>133</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/resources/OrderBackup.xlsx
+++ b/resources/OrderBackup.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="130">
   <si>
     <t>Type</t>
   </si>
@@ -53,58 +53,64 @@
     <t>Product Name</t>
   </si>
   <si>
-    <t/>
+    <t>Hudson Greens and Goods</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>Invoice</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24 bu/cs</t>
+  </si>
+  <si>
+    <t>12/20/2022</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>RDF 1</t>
   </si>
   <si>
     <t>Red Mustard Greens,  24 bu/cs</t>
   </si>
   <si>
-    <t>12/20/2022</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 24 bu/cs</t>
-  </si>
-  <si>
-    <t>Hudson Greens and Goods</t>
-  </si>
-  <si>
-    <t>50.0</t>
+    <t>12246</t>
+  </si>
+  <si>
+    <t>818181022823</t>
   </si>
   <si>
     <t>RM24</t>
   </si>
   <si>
-    <t>Invoice</t>
+    <t>Caitlin</t>
   </si>
   <si>
     <t>Red Mustard Greens</t>
   </si>
   <si>
-    <t>12246</t>
-  </si>
-  <si>
-    <t>818181022823</t>
-  </si>
-  <si>
     <t>Red Russian Kale,  24 bu/cs</t>
   </si>
   <si>
+    <t>818181022854</t>
+  </si>
+  <si>
     <t>RRK24</t>
   </si>
   <si>
     <t>Red Russian Kale</t>
   </si>
   <si>
-    <t>818181022854</t>
+    <t>2.0</t>
   </si>
   <si>
     <t>Dino Kale,  24 bu/cs</t>
   </si>
   <si>
-    <t>2.0</t>
+    <t>818181022519</t>
   </si>
   <si>
     <t>DK24</t>
@@ -113,16 +119,16 @@
     <t>Dino Kale</t>
   </si>
   <si>
-    <t>818181022519</t>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4 lbs/cs</t>
   </si>
   <si>
     <t>Savoy Spinach,  4 lbs/cs</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4 lbs/cs</t>
-  </si>
-  <si>
-    <t>18.0</t>
+    <t>818181022885</t>
   </si>
   <si>
     <t>SP4</t>
@@ -131,19 +137,19 @@
     <t>Savoy Spinach</t>
   </si>
   <si>
-    <t>818181022885</t>
+    <t>87.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Size B/C, 25 lbs/cs</t>
+  </si>
+  <si>
+    <t>1.0</t>
   </si>
   <si>
     <t>Purple Majesty Potatoes,  Size B/C, 25 lbs/cs</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Size B/C, 25 lbs/cs</t>
-  </si>
-  <si>
-    <t>87.5</t>
+    <t>818181025107</t>
   </si>
   <si>
     <t>PMC25</t>
@@ -152,16 +158,16 @@
     <t>Purple Majesty Potatoes</t>
   </si>
   <si>
-    <t>818181025107</t>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3 lbs/cs</t>
   </si>
   <si>
     <t>Mixed Baby Kale,  3 lbs/cs</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3 lbs/cs</t>
-  </si>
-  <si>
-    <t>16.0</t>
+    <t>818181022687</t>
   </si>
   <si>
     <t>MXBK3</t>
@@ -170,40 +176,43 @@
     <t>Mixed Baby Kale</t>
   </si>
   <si>
-    <t>818181022687</t>
+    <t>Produce Express</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4 lbs/cs,</t>
+  </si>
+  <si>
+    <t>10.0</t>
   </si>
   <si>
     <t>Bloomsdale Spinach,  4 lbs/cs,</t>
   </si>
   <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4 lbs/cs,</t>
-  </si>
-  <si>
-    <t>Produce Express</t>
+    <t>12245</t>
+  </si>
+  <si>
+    <t>818181022250</t>
   </si>
   <si>
     <t>BLSP4</t>
   </si>
   <si>
+    <t>RF-122022</t>
+  </si>
+  <si>
     <t>Bloomsdale Spinach</t>
   </si>
   <si>
-    <t>12245</t>
-  </si>
-  <si>
-    <t>818181022250</t>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
   </si>
   <si>
     <t>Braising Mix,  3 lbs/cs</t>
   </si>
   <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>14.0</t>
+    <t>818181022397</t>
   </si>
   <si>
     <t>BRMX3</t>
@@ -212,16 +221,16 @@
     <t>Braising Mix</t>
   </si>
   <si>
-    <t>818181022397</t>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20 lb/cs,</t>
   </si>
   <si>
     <t>King Richard Leeks,  20 lb/cs,</t>
   </si>
   <si>
-    <t xml:space="preserve"> 20 lb/cs,</t>
-  </si>
-  <si>
-    <t>28.0</t>
+    <t>818181023462</t>
   </si>
   <si>
     <t>KRL20</t>
@@ -230,13 +239,13 @@
     <t>King Richard Leeks</t>
   </si>
   <si>
-    <t>818181023462</t>
+    <t>32.0</t>
   </si>
   <si>
     <t>Tokyo Turnips,  24 bu/cs</t>
   </si>
   <si>
-    <t>32.0</t>
+    <t>818181027583</t>
   </si>
   <si>
     <t>TT24</t>
@@ -245,16 +254,16 @@
     <t>Tokyo Turnips</t>
   </si>
   <si>
-    <t>818181027583</t>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Size B, 25 lbs/cs</t>
   </si>
   <si>
     <t>German Butterball Potatoes,  Size B, 25 lbs/cs</t>
   </si>
   <si>
-    <t xml:space="preserve"> Size B, 25 lbs/cs</t>
-  </si>
-  <si>
-    <t>70.0</t>
+    <t>818181024889</t>
   </si>
   <si>
     <t>GBBB25</t>
@@ -263,79 +272,82 @@
     <t>German Butterball Potatoes</t>
   </si>
   <si>
-    <t>818181024889</t>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12 bu/cs</t>
+  </si>
+  <si>
+    <t>30.0</t>
   </si>
   <si>
     <t>Dino Kale,  12 bu/cs</t>
   </si>
   <si>
-    <t>30.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12 bu/cs</t>
-  </si>
-  <si>
-    <t>15.0</t>
+    <t>818181022496</t>
   </si>
   <si>
     <t>DK12</t>
   </si>
   <si>
-    <t>818181022496</t>
+    <t>SNFC</t>
+  </si>
+  <si>
+    <t>13.0</t>
   </si>
   <si>
     <t>Thyme,  12 bu/cs</t>
   </si>
   <si>
-    <t>SNFC</t>
-  </si>
-  <si>
-    <t>13.0</t>
+    <t>12244</t>
+  </si>
+  <si>
+    <t>818181023127</t>
   </si>
   <si>
     <t>THYME</t>
   </si>
   <si>
+    <t>Kate</t>
+  </si>
+  <si>
     <t>Thyme</t>
   </si>
   <si>
-    <t>12244</t>
-  </si>
-  <si>
-    <t>818181023127</t>
-  </si>
-  <si>
     <t>Green Mustard Greens,  24 bu/cs</t>
   </si>
   <si>
+    <t>818181022595</t>
+  </si>
+  <si>
     <t>GM24</t>
   </si>
   <si>
     <t>Green Mustard Greens</t>
   </si>
   <si>
-    <t>818181022595</t>
-  </si>
-  <si>
     <t>Spinach,  24 bu/cs</t>
   </si>
   <si>
+    <t>818181022861</t>
+  </si>
+  <si>
     <t>SP24</t>
   </si>
   <si>
     <t>Spinach</t>
   </si>
   <si>
-    <t>818181022861</t>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
   </si>
   <si>
     <t>Curly Kale,  24 bu/cs</t>
   </si>
   <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>42.0</t>
+    <t>818181022458</t>
   </si>
   <si>
     <t>CK24</t>
@@ -344,28 +356,28 @@
     <t>Curly Kale</t>
   </si>
   <si>
-    <t>818181022458</t>
-  </si>
-  <si>
     <t>9.0</t>
   </si>
   <si>
     <t>Collard Greens,  24 bu/cs</t>
   </si>
   <si>
+    <t>818181022489</t>
+  </si>
+  <si>
     <t>COL24</t>
   </si>
   <si>
     <t>Collard Greens</t>
   </si>
   <si>
-    <t>818181022489</t>
+    <t xml:space="preserve"> 25 lbs/bag</t>
   </si>
   <si>
     <t>Purple Top Turnips,  25 lbs/bag</t>
   </si>
   <si>
-    <t xml:space="preserve"> 25 lbs/bag</t>
+    <t>818181027514</t>
   </si>
   <si>
     <t>PTT25</t>
@@ -374,25 +386,22 @@
     <t>Purple Top Turnips</t>
   </si>
   <si>
-    <t>818181027514</t>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20 lbs/cs</t>
   </si>
   <si>
     <t>Mei Qing Choi,  20 lbs/cs</t>
   </si>
   <si>
-    <t xml:space="preserve"> 20 lbs/cs</t>
-  </si>
-  <si>
-    <t>45.0</t>
+    <t>818181022656</t>
   </si>
   <si>
     <t>MQC20</t>
   </si>
   <si>
     <t>Mei Qing Choi</t>
-  </si>
-  <si>
-    <t>818181022656</t>
   </si>
 </sst>
 </file>
@@ -486,904 +495,904 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>16</v>
       </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
         <v>16</v>
       </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" t="s">
-        <v>17</v>
-      </c>
       <c r="M3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
         <v>33</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>31</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
       </c>
       <c r="J4" t="s">
         <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
         <v>39</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>37</v>
-      </c>
-      <c r="I5" t="s">
-        <v>34</v>
       </c>
       <c r="J5" t="s">
         <v>30</v>
       </c>
       <c r="K5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" t="s">
         <v>36</v>
       </c>
-      <c r="L5" t="s">
-        <v>35</v>
-      </c>
       <c r="M5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>44</v>
       </c>
-      <c r="I6" t="s">
-        <v>40</v>
-      </c>
       <c r="J6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" t="s">
         <v>41</v>
-      </c>
-      <c r="K6" t="s">
-        <v>43</v>
       </c>
       <c r="L6" t="s">
         <v>42</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
         <v>52</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>50</v>
-      </c>
-      <c r="I7" t="s">
-        <v>47</v>
       </c>
       <c r="J7" t="s">
         <v>30</v>
       </c>
       <c r="K7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" t="s">
         <v>49</v>
       </c>
-      <c r="L7" t="s">
-        <v>48</v>
-      </c>
       <c r="M7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" t="s">
         <v>56</v>
       </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" t="s">
-        <v>54</v>
-      </c>
       <c r="K8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L8" t="s">
         <v>55</v>
       </c>
       <c r="M8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
         <v>66</v>
       </c>
       <c r="H9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" t="s">
         <v>64</v>
-      </c>
-      <c r="I9" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" t="s">
-        <v>62</v>
       </c>
       <c r="K9" t="s">
         <v>63</v>
       </c>
       <c r="L9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
         <v>72</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K10" t="s">
         <v>69</v>
       </c>
       <c r="L10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
         <v>77</v>
       </c>
       <c r="H11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" t="s">
         <v>75</v>
       </c>
-      <c r="I11" t="s">
-        <v>73</v>
-      </c>
-      <c r="J11" t="s">
-        <v>62</v>
-      </c>
-      <c r="K11" t="s">
-        <v>74</v>
-      </c>
       <c r="L11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
         <v>83</v>
       </c>
       <c r="H12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K12" t="s">
         <v>80</v>
       </c>
       <c r="L12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M12" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" t="s">
         <v>89</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
         <v>88</v>
       </c>
-      <c r="I13" t="s">
-        <v>84</v>
-      </c>
-      <c r="J13" t="s">
-        <v>85</v>
-      </c>
       <c r="K13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" t="s">
         <v>87</v>
       </c>
-      <c r="L13" t="s">
-        <v>86</v>
-      </c>
       <c r="M13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
         <v>95</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
         <v>96</v>
       </c>
       <c r="H14" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I14" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J14" t="s">
         <v>30</v>
       </c>
       <c r="K14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M14" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
         <v>95</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" t="s">
+        <v>102</v>
+      </c>
+      <c r="I15" t="s">
         <v>100</v>
       </c>
-      <c r="H15" t="s">
-        <v>98</v>
-      </c>
-      <c r="I15" t="s">
-        <v>97</v>
-      </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M15" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
         <v>95</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" t="s">
         <v>20</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" t="s">
         <v>14</v>
       </c>
-      <c r="J16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16" t="s">
-        <v>19</v>
-      </c>
       <c r="L16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
         <v>95</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" t="s">
+        <v>106</v>
+      </c>
+      <c r="I17" t="s">
         <v>104</v>
       </c>
-      <c r="H17" t="s">
-        <v>102</v>
-      </c>
-      <c r="I17" t="s">
-        <v>101</v>
-      </c>
       <c r="J17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M17" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
         <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18" t="s">
         <v>110</v>
       </c>
-      <c r="H18" t="s">
+      <c r="J18" t="s">
+        <v>109</v>
+      </c>
+      <c r="K18" t="s">
         <v>108</v>
       </c>
-      <c r="I18" t="s">
-        <v>105</v>
-      </c>
-      <c r="J18" t="s">
-        <v>106</v>
-      </c>
-      <c r="K18" t="s">
-        <v>107</v>
-      </c>
       <c r="L18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M18" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
         <v>95</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" t="s">
         <v>33</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>31</v>
       </c>
-      <c r="I19" t="s">
-        <v>29</v>
-      </c>
       <c r="J19" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
         <v>95</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H20" t="s">
+        <v>117</v>
+      </c>
+      <c r="I20" t="s">
         <v>115</v>
       </c>
-      <c r="H20" t="s">
-        <v>113</v>
-      </c>
-      <c r="I20" t="s">
-        <v>112</v>
-      </c>
       <c r="J20" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M20" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
         <v>95</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
         <v>66</v>
       </c>
       <c r="H21" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I21" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J21" t="s">
         <v>30</v>
       </c>
       <c r="K21" t="s">
+        <v>48</v>
+      </c>
+      <c r="L21" t="s">
         <v>49</v>
       </c>
-      <c r="L21" t="s">
-        <v>48</v>
-      </c>
       <c r="M21" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
         <v>95</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
+        <v>121</v>
+      </c>
+      <c r="H22" t="s">
+        <v>122</v>
+      </c>
+      <c r="I22" t="s">
         <v>120</v>
       </c>
-      <c r="H22" t="s">
-        <v>118</v>
-      </c>
-      <c r="I22" t="s">
-        <v>116</v>
-      </c>
       <c r="J22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K22" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L22" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M22" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
         <v>95</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
+        <v>127</v>
+      </c>
+      <c r="H23" t="s">
+        <v>128</v>
+      </c>
+      <c r="I23" t="s">
         <v>126</v>
-      </c>
-      <c r="H23" t="s">
-        <v>124</v>
-      </c>
-      <c r="I23" t="s">
-        <v>121</v>
       </c>
       <c r="J23" t="s">
         <v>30</v>
       </c>
       <c r="K23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M23" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/resources/OrderBackup.xlsx
+++ b/resources/OrderBackup.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="253">
   <si>
     <t>Type</t>
   </si>
@@ -53,247 +53,259 @@
     <t>Product Name</t>
   </si>
   <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>Invoice</t>
+  </si>
+  <si>
+    <t>818181022823</t>
+  </si>
+  <si>
+    <t>12/20/2022</t>
+  </si>
+  <si>
+    <t>Caitlin</t>
+  </si>
+  <si>
+    <t>RDF 1</t>
+  </si>
+  <si>
+    <t>Red Mustard Greens</t>
+  </si>
+  <si>
     <t>Hudson Greens and Goods</t>
   </si>
   <si>
-    <t>50.0</t>
-  </si>
-  <si>
-    <t>Invoice</t>
+    <t>RM24</t>
+  </si>
+  <si>
+    <t>Red Mustard Greens,  24 bu/cs</t>
+  </si>
+  <si>
+    <t>0.5</t>
   </si>
   <si>
     <t xml:space="preserve"> 24 bu/cs</t>
   </si>
   <si>
-    <t>12/20/2022</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>RDF 1</t>
-  </si>
-  <si>
-    <t>Red Mustard Greens,  24 bu/cs</t>
-  </si>
-  <si>
     <t>12246</t>
   </si>
   <si>
-    <t>818181022823</t>
-  </si>
-  <si>
-    <t>RM24</t>
-  </si>
-  <si>
-    <t>Caitlin</t>
-  </si>
-  <si>
-    <t>Red Mustard Greens</t>
+    <t>818181022854</t>
+  </si>
+  <si>
+    <t>Red Russian Kale</t>
+  </si>
+  <si>
+    <t>RRK24</t>
   </si>
   <si>
     <t>Red Russian Kale,  24 bu/cs</t>
   </si>
   <si>
-    <t>818181022854</t>
-  </si>
-  <si>
-    <t>RRK24</t>
-  </si>
-  <si>
-    <t>Red Russian Kale</t>
+    <t>818181022519</t>
+  </si>
+  <si>
+    <t>Dino Kale</t>
+  </si>
+  <si>
+    <t>DK24</t>
+  </si>
+  <si>
+    <t>Dino Kale,  24 bu/cs</t>
   </si>
   <si>
     <t>2.0</t>
   </si>
   <si>
-    <t>Dino Kale,  24 bu/cs</t>
-  </si>
-  <si>
-    <t>818181022519</t>
-  </si>
-  <si>
-    <t>DK24</t>
-  </si>
-  <si>
-    <t>Dino Kale</t>
-  </si>
-  <si>
     <t>18.0</t>
   </si>
   <si>
+    <t>818181022885</t>
+  </si>
+  <si>
+    <t>Savoy Spinach</t>
+  </si>
+  <si>
+    <t>SP4</t>
+  </si>
+  <si>
+    <t>Savoy Spinach,  4 lbs/cs</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 4 lbs/cs</t>
   </si>
   <si>
-    <t>Savoy Spinach,  4 lbs/cs</t>
-  </si>
-  <si>
-    <t>818181022885</t>
-  </si>
-  <si>
-    <t>SP4</t>
-  </si>
-  <si>
-    <t>Savoy Spinach</t>
-  </si>
-  <si>
     <t>87.5</t>
   </si>
   <si>
+    <t>818181025107</t>
+  </si>
+  <si>
+    <t>Purple Majesty Potatoes</t>
+  </si>
+  <si>
+    <t>PMC25</t>
+  </si>
+  <si>
+    <t>Purple Majesty Potatoes,  Size B/C, 25 lbs/cs</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Size B/C, 25 lbs/cs</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>Purple Majesty Potatoes,  Size B/C, 25 lbs/cs</t>
-  </si>
-  <si>
-    <t>818181025107</t>
-  </si>
-  <si>
-    <t>PMC25</t>
-  </si>
-  <si>
-    <t>Purple Majesty Potatoes</t>
-  </si>
-  <si>
     <t>16.0</t>
   </si>
   <si>
+    <t>818181022687</t>
+  </si>
+  <si>
+    <t>Mixed Baby Kale</t>
+  </si>
+  <si>
+    <t>MXBK3</t>
+  </si>
+  <si>
+    <t>Mixed Baby Kale,  3 lbs/cs</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 3 lbs/cs</t>
   </si>
   <si>
-    <t>Mixed Baby Kale,  3 lbs/cs</t>
-  </si>
-  <si>
-    <t>818181022687</t>
-  </si>
-  <si>
-    <t>MXBK3</t>
-  </si>
-  <si>
-    <t>Mixed Baby Kale</t>
+    <t>818181022250</t>
+  </si>
+  <si>
+    <t>RF-122022</t>
+  </si>
+  <si>
+    <t>Bloomsdale Spinach</t>
   </si>
   <si>
     <t>Produce Express</t>
   </si>
   <si>
+    <t>BLSP4</t>
+  </si>
+  <si>
+    <t>Bloomsdale Spinach,  4 lbs/cs,</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 4 lbs/cs,</t>
   </si>
   <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>Bloomsdale Spinach,  4 lbs/cs,</t>
-  </si>
-  <si>
     <t>12245</t>
   </si>
   <si>
-    <t>818181022250</t>
-  </si>
-  <si>
-    <t>BLSP4</t>
-  </si>
-  <si>
-    <t>RF-122022</t>
-  </si>
-  <si>
-    <t>Bloomsdale Spinach</t>
-  </si>
-  <si>
     <t>14.0</t>
   </si>
   <si>
+    <t>818181022397</t>
+  </si>
+  <si>
+    <t>Braising Mix</t>
+  </si>
+  <si>
+    <t>BRMX3</t>
+  </si>
+  <si>
+    <t>Braising Mix,  3 lbs/cs</t>
+  </si>
+  <si>
     <t>5.0</t>
   </si>
   <si>
-    <t>Braising Mix,  3 lbs/cs</t>
-  </si>
-  <si>
-    <t>818181022397</t>
-  </si>
-  <si>
-    <t>BRMX3</t>
-  </si>
-  <si>
-    <t>Braising Mix</t>
-  </si>
-  <si>
     <t>28.0</t>
   </si>
   <si>
+    <t>818181023462</t>
+  </si>
+  <si>
+    <t>King Richard Leeks</t>
+  </si>
+  <si>
+    <t>KRL20</t>
+  </si>
+  <si>
+    <t>King Richard Leeks,  20 lb/cs,</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 20 lb/cs,</t>
   </si>
   <si>
-    <t>King Richard Leeks,  20 lb/cs,</t>
-  </si>
-  <si>
-    <t>818181023462</t>
-  </si>
-  <si>
-    <t>KRL20</t>
-  </si>
-  <si>
-    <t>King Richard Leeks</t>
-  </si>
-  <si>
     <t>32.0</t>
   </si>
   <si>
+    <t>818181027583</t>
+  </si>
+  <si>
+    <t>Tokyo Turnips</t>
+  </si>
+  <si>
+    <t>TT24</t>
+  </si>
+  <si>
     <t>Tokyo Turnips,  24 bu/cs</t>
   </si>
   <si>
-    <t>818181027583</t>
-  </si>
-  <si>
-    <t>TT24</t>
-  </si>
-  <si>
-    <t>Tokyo Turnips</t>
-  </si>
-  <si>
     <t>70.0</t>
   </si>
   <si>
+    <t>818181024889</t>
+  </si>
+  <si>
+    <t>German Butterball Potatoes</t>
+  </si>
+  <si>
+    <t>GBBB25</t>
+  </si>
+  <si>
+    <t>German Butterball Potatoes,  Size B, 25 lbs/cs</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Size B, 25 lbs/cs</t>
   </si>
   <si>
-    <t>German Butterball Potatoes,  Size B, 25 lbs/cs</t>
-  </si>
-  <si>
-    <t>818181024889</t>
-  </si>
-  <si>
-    <t>GBBB25</t>
-  </si>
-  <si>
-    <t>German Butterball Potatoes</t>
-  </si>
-  <si>
     <t>15.0</t>
   </si>
   <si>
+    <t>818181022496</t>
+  </si>
+  <si>
+    <t>DK12</t>
+  </si>
+  <si>
+    <t>Dino Kale,  12 bu/cs</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 12 bu/cs</t>
   </si>
   <si>
-    <t>30.0</t>
-  </si>
-  <si>
-    <t>Dino Kale,  12 bu/cs</t>
-  </si>
-  <si>
-    <t>818181022496</t>
-  </si>
-  <si>
-    <t>DK12</t>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>818181023127</t>
+  </si>
+  <si>
+    <t>Kate</t>
+  </si>
+  <si>
+    <t>Thyme</t>
   </si>
   <si>
     <t>SNFC</t>
   </si>
   <si>
-    <t>13.0</t>
+    <t>THYME</t>
   </si>
   <si>
     <t>Thyme,  12 bu/cs</t>
@@ -302,106 +314,463 @@
     <t>12244</t>
   </si>
   <si>
-    <t>818181023127</t>
-  </si>
-  <si>
-    <t>THYME</t>
-  </si>
-  <si>
-    <t>Kate</t>
-  </si>
-  <si>
-    <t>Thyme</t>
+    <t>818181022595</t>
+  </si>
+  <si>
+    <t>Green Mustard Greens</t>
+  </si>
+  <si>
+    <t>GM24</t>
   </si>
   <si>
     <t>Green Mustard Greens,  24 bu/cs</t>
   </si>
   <si>
-    <t>818181022595</t>
-  </si>
-  <si>
-    <t>GM24</t>
-  </si>
-  <si>
-    <t>Green Mustard Greens</t>
+    <t>818181022861</t>
+  </si>
+  <si>
+    <t>Spinach</t>
+  </si>
+  <si>
+    <t>SP24</t>
   </si>
   <si>
     <t>Spinach,  24 bu/cs</t>
   </si>
   <si>
-    <t>818181022861</t>
-  </si>
-  <si>
-    <t>SP24</t>
-  </si>
-  <si>
-    <t>Spinach</t>
-  </si>
-  <si>
     <t>42.0</t>
   </si>
   <si>
+    <t>818181022458</t>
+  </si>
+  <si>
+    <t>Curly Kale</t>
+  </si>
+  <si>
+    <t>CK24</t>
+  </si>
+  <si>
+    <t>Curly Kale,  24 bu/cs</t>
+  </si>
+  <si>
     <t>8.0</t>
   </si>
   <si>
-    <t>Curly Kale,  24 bu/cs</t>
-  </si>
-  <si>
-    <t>818181022458</t>
-  </si>
-  <si>
-    <t>CK24</t>
-  </si>
-  <si>
-    <t>Curly Kale</t>
-  </si>
-  <si>
     <t>9.0</t>
   </si>
   <si>
+    <t>818181022489</t>
+  </si>
+  <si>
+    <t>Collard Greens</t>
+  </si>
+  <si>
+    <t>COL24</t>
+  </si>
+  <si>
     <t>Collard Greens,  24 bu/cs</t>
   </si>
   <si>
-    <t>818181022489</t>
-  </si>
-  <si>
-    <t>COL24</t>
-  </si>
-  <si>
-    <t>Collard Greens</t>
+    <t>818181027514</t>
+  </si>
+  <si>
+    <t>Purple Top Turnips</t>
+  </si>
+  <si>
+    <t>PTT25</t>
+  </si>
+  <si>
+    <t>Purple Top Turnips,  25 lbs/bag</t>
   </si>
   <si>
     <t xml:space="preserve"> 25 lbs/bag</t>
   </si>
   <si>
-    <t>Purple Top Turnips,  25 lbs/bag</t>
-  </si>
-  <si>
-    <t>818181027514</t>
-  </si>
-  <si>
-    <t>PTT25</t>
-  </si>
-  <si>
-    <t>Purple Top Turnips</t>
-  </si>
-  <si>
     <t>45.0</t>
   </si>
   <si>
+    <t>818181022656</t>
+  </si>
+  <si>
+    <t>Mei Qing Choi</t>
+  </si>
+  <si>
+    <t>MQC20</t>
+  </si>
+  <si>
+    <t>Mei Qing Choi,  20 lbs/cs</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 20 lbs/cs</t>
   </si>
   <si>
-    <t>Mei Qing Choi,  20 lbs/cs</t>
-  </si>
-  <si>
-    <t>818181022656</t>
-  </si>
-  <si>
-    <t>MQC20</t>
-  </si>
-  <si>
-    <t>Mei Qing Choi</t>
+    <t>44.0</t>
+  </si>
+  <si>
+    <t>818181026104</t>
+  </si>
+  <si>
+    <t>09/01/2022</t>
+  </si>
+  <si>
+    <t>Beth</t>
+  </si>
+  <si>
+    <t>ThBFM P/U</t>
+  </si>
+  <si>
+    <t>Extra Fancy Mixed Summer Squash</t>
+  </si>
+  <si>
+    <t>Chez Panisse</t>
+  </si>
+  <si>
+    <t>MXSQ22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extra Fancy Mixed Summer Squash,  22 lbs/cs </t>
+  </si>
+  <si>
+    <t>1.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22 lbs/cs </t>
+  </si>
+  <si>
+    <t>11258</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Extra Fancy Mixed Zucchini Squash</t>
+  </si>
+  <si>
+    <t>MXZQ22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extra Fancy Mixed Zucchini Squash,  22lbs/cs </t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22lbs/cs </t>
+  </si>
+  <si>
+    <t>818181021550</t>
+  </si>
+  <si>
+    <t>Lemon Cucumbers</t>
+  </si>
+  <si>
+    <t>LCU10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lemon Cucumbers,  10 lbs/cs </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10 lbs/cs </t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>Zoraida</t>
+  </si>
+  <si>
+    <t>Back Fat</t>
+  </si>
+  <si>
+    <t>El Molino Central</t>
+  </si>
+  <si>
+    <t>BACK FAT</t>
+  </si>
+  <si>
+    <t>Back Fat,  by the poundCCOF Certified Organic Hogs; Meat Not Organic Due to Being Processed in a Not Organic USDA-Inspected Plant</t>
+  </si>
+  <si>
+    <t>67.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> by the poundCCOF Certified Organic Hogs; Meat Not Organic Due to Being Processed in a Not Organic USDA-Inspected Plant</t>
+  </si>
+  <si>
+    <t>11259</t>
+  </si>
+  <si>
+    <t>Eggs</t>
+  </si>
+  <si>
+    <t>AEGG</t>
+  </si>
+  <si>
+    <t>Eggs,  Assorted SizesCertified Organic by CCOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Assorted SizesCertified Organic by CCOF</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>818181026807</t>
+  </si>
+  <si>
+    <t>Choice Tomatoes</t>
+  </si>
+  <si>
+    <t>2T30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choice Tomatoes,  30 lbs/cs </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30 lbs/cs </t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>818181026975</t>
+  </si>
+  <si>
+    <t>Early Girl Tomatoes</t>
+  </si>
+  <si>
+    <t>EGT20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Early Girl Tomatoes,  20 lbs/cs </t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20 lbs/cs </t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>Outbound lug</t>
+  </si>
+  <si>
+    <t>LUG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outbound lug, </t>
+  </si>
+  <si>
+    <t>Inbound lug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inbound lug, </t>
+  </si>
+  <si>
+    <t>818181026791</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>Farm P/U</t>
+  </si>
+  <si>
+    <t>Guinda Commons</t>
+  </si>
+  <si>
+    <t>2T20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choice Tomatoes,  20 lbs/cs </t>
+  </si>
+  <si>
+    <t>11256</t>
+  </si>
+  <si>
+    <t>818181027132</t>
+  </si>
+  <si>
+    <t>Mixed Heirloom Tomatoes</t>
+  </si>
+  <si>
+    <t>MXHT10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixed Heirloom Tomatoes,  10 lbs/cs </t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>818181027637</t>
+  </si>
+  <si>
+    <t>Mixed Watermelon</t>
+  </si>
+  <si>
+    <t>MXWM30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixed Watermelon,  30 lbs/cs </t>
+  </si>
+  <si>
+    <t>Painted Serpent Cucumbers</t>
+  </si>
+  <si>
+    <t>PSCU10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Painted Serpent Cucumbers,  10 lbs/cs </t>
+  </si>
+  <si>
+    <t>37.5</t>
+  </si>
+  <si>
+    <t>Starlight Watermelon</t>
+  </si>
+  <si>
+    <t>SLW30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starlight Watermelon,  30lbs/cs </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30lbs/cs </t>
+  </si>
+  <si>
+    <t>11261</t>
+  </si>
+  <si>
+    <t>Cinde</t>
+  </si>
+  <si>
+    <t>Oxbow School</t>
+  </si>
+  <si>
+    <t>11255</t>
+  </si>
+  <si>
+    <t>818181023790</t>
+  </si>
+  <si>
+    <t>Cantaloupe</t>
+  </si>
+  <si>
+    <t>CAN30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cantaloupe,  30 lbs/cs </t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>818181021734</t>
+  </si>
+  <si>
+    <t>Globe Eggplant</t>
+  </si>
+  <si>
+    <t>GLE20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Globe Eggplant,  20 lbs/cs </t>
+  </si>
+  <si>
+    <t>Cheli</t>
+  </si>
+  <si>
+    <t>Primavera Tamales</t>
+  </si>
+  <si>
+    <t>11260</t>
+  </si>
+  <si>
+    <t>Chuy</t>
+  </si>
+  <si>
+    <t>Saul's</t>
+  </si>
+  <si>
+    <t>11262</t>
+  </si>
+  <si>
+    <t>62.5</t>
+  </si>
+  <si>
+    <t>818181020713</t>
+  </si>
+  <si>
+    <t>Loose Carrots</t>
+  </si>
+  <si>
+    <t>CAR25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loose Carrots,  25 lbs/bag </t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25 lbs/bag </t>
+  </si>
+  <si>
+    <t>818181021598</t>
+  </si>
+  <si>
+    <t>Pickling Cucumbers</t>
+  </si>
+  <si>
+    <t>PCU22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pickling Cucumbers,  22 lbs/cs </t>
+  </si>
+  <si>
+    <t>818181021192</t>
+  </si>
+  <si>
+    <t>Sungold Cherry Tomatoes</t>
+  </si>
+  <si>
+    <t>SGOCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sungold Cherry Tomatoes,  12 pts/cs </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12 pts/cs </t>
+  </si>
+  <si>
+    <t>38.5</t>
+  </si>
+  <si>
+    <t>818181021604</t>
+  </si>
+  <si>
+    <t>Luke</t>
+  </si>
+  <si>
+    <t>Wild West Ferments</t>
+  </si>
+  <si>
+    <t>PCU25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pickling Cucumbers,  25 lbs/cs </t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25 lbs/cs </t>
+  </si>
+  <si>
+    <t>11257</t>
   </si>
 </sst>
 </file>
@@ -495,728 +864,728 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
+      <c r="M2" t="s">
         <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
         <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="L4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="s">
         <v>31</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
         <v>38</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>39</v>
       </c>
-      <c r="I5" t="s">
-        <v>37</v>
-      </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K5" t="s">
         <v>35</v>
       </c>
       <c r="L5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" t="s">
         <v>45</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>46</v>
-      </c>
-      <c r="I6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" t="s">
-        <v>43</v>
       </c>
       <c r="K6" t="s">
         <v>41</v>
       </c>
       <c r="L6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="M6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
         <v>51</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>52</v>
       </c>
-      <c r="I7" t="s">
-        <v>50</v>
-      </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K7" t="s">
         <v>48</v>
       </c>
       <c r="L7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
         <v>54</v>
       </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="H8" t="s">
         <v>58</v>
       </c>
-      <c r="E8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>59</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>60</v>
-      </c>
-      <c r="I8" t="s">
-        <v>57</v>
-      </c>
-      <c r="J8" t="s">
-        <v>56</v>
       </c>
       <c r="K8" t="s">
         <v>35</v>
       </c>
       <c r="L8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="M8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" t="s">
         <v>66</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>67</v>
       </c>
-      <c r="I9" t="s">
-        <v>65</v>
-      </c>
       <c r="J9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K9" t="s">
         <v>63</v>
       </c>
       <c r="L9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" t="s">
         <v>72</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>73</v>
       </c>
-      <c r="I10" t="s">
-        <v>71</v>
-      </c>
       <c r="J10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K10" t="s">
         <v>69</v>
       </c>
       <c r="L10" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s">
         <v>78</v>
       </c>
       <c r="I11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J11" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K11" t="s">
         <v>75</v>
       </c>
       <c r="L11" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" t="s">
         <v>83</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>84</v>
       </c>
-      <c r="I12" t="s">
-        <v>82</v>
-      </c>
       <c r="J12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K12" t="s">
         <v>80</v>
       </c>
       <c r="L12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I13" t="s">
         <v>89</v>
       </c>
       <c r="J13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K13" t="s">
         <v>86</v>
       </c>
       <c r="L13" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H14" t="s">
         <v>97</v>
       </c>
       <c r="I14" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M14" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H15" t="s">
         <v>102</v>
       </c>
       <c r="I15" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L15" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" t="s">
         <v>19</v>
-      </c>
-      <c r="G16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" t="s">
-        <v>43</v>
-      </c>
-      <c r="K16" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" t="s">
-        <v>16</v>
-      </c>
-      <c r="M16" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H17" t="s">
         <v>106</v>
       </c>
       <c r="I17" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J17" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L17" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" t="s">
         <v>111</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>112</v>
       </c>
-      <c r="I18" t="s">
-        <v>110</v>
-      </c>
       <c r="J18" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K18" t="s">
         <v>108</v>
       </c>
       <c r="L18" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E19" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" t="s">
         <v>32</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>33</v>
-      </c>
-      <c r="I19" t="s">
-        <v>31</v>
       </c>
       <c r="J19" t="s">
         <v>114</v>
@@ -1225,174 +1594,1281 @@
         <v>108</v>
       </c>
       <c r="L19" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H20" t="s">
         <v>117</v>
       </c>
       <c r="I20" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J20" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K20" t="s">
         <v>108</v>
       </c>
       <c r="L20" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" t="s">
         <v>66</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>67</v>
       </c>
-      <c r="I21" t="s">
-        <v>65</v>
-      </c>
       <c r="J21" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K21" t="s">
         <v>48</v>
       </c>
       <c r="L21" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" t="s">
         <v>121</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>122</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" t="s">
+        <v>123</v>
+      </c>
+      <c r="M22" t="s">
         <v>120</v>
-      </c>
-      <c r="J22" t="s">
-        <v>43</v>
-      </c>
-      <c r="K22" t="s">
-        <v>14</v>
-      </c>
-      <c r="L22" t="s">
-        <v>119</v>
-      </c>
-      <c r="M22" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E23" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" t="s">
         <v>127</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>128</v>
       </c>
-      <c r="I23" t="s">
-        <v>126</v>
-      </c>
       <c r="J23" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K23" t="s">
         <v>124</v>
       </c>
       <c r="L23" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="M23" t="s">
-        <v>129</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F24" t="s">
+        <v>134</v>
+      </c>
+      <c r="G24" t="s">
+        <v>131</v>
+      </c>
+      <c r="H24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I24" t="s">
+        <v>138</v>
+      </c>
+      <c r="J24" t="s">
+        <v>139</v>
+      </c>
+      <c r="K24" t="s">
+        <v>130</v>
+      </c>
+      <c r="L24" t="s">
+        <v>140</v>
+      </c>
+      <c r="M24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F25" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" t="s">
+        <v>142</v>
+      </c>
+      <c r="H25" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25" t="s">
+        <v>145</v>
+      </c>
+      <c r="J25" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" t="s">
+        <v>130</v>
+      </c>
+      <c r="L25" t="s">
+        <v>147</v>
+      </c>
+      <c r="M25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26" t="s">
+        <v>148</v>
+      </c>
+      <c r="H26" t="s">
+        <v>150</v>
+      </c>
+      <c r="I26" t="s">
+        <v>151</v>
+      </c>
+      <c r="J26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" t="s">
+        <v>124</v>
+      </c>
+      <c r="L26" t="s">
+        <v>152</v>
+      </c>
+      <c r="M26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" t="s">
+        <v>161</v>
+      </c>
+      <c r="E27" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s">
+        <v>142</v>
+      </c>
+      <c r="H27" t="s">
+        <v>157</v>
+      </c>
+      <c r="I27" t="s">
+        <v>158</v>
+      </c>
+      <c r="J27" t="s">
+        <v>159</v>
+      </c>
+      <c r="K27" t="s">
+        <v>153</v>
+      </c>
+      <c r="L27" t="s">
+        <v>160</v>
+      </c>
+      <c r="M27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" t="s">
+        <v>161</v>
+      </c>
+      <c r="E28" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s">
+        <v>142</v>
+      </c>
+      <c r="H28" t="s">
+        <v>163</v>
+      </c>
+      <c r="I28" t="s">
+        <v>164</v>
+      </c>
+      <c r="J28" t="s">
+        <v>86</v>
+      </c>
+      <c r="K28" t="s">
+        <v>114</v>
+      </c>
+      <c r="L28" t="s">
+        <v>165</v>
+      </c>
+      <c r="M28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" t="s">
+        <v>161</v>
+      </c>
+      <c r="E29" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s">
+        <v>167</v>
+      </c>
+      <c r="H29" t="s">
+        <v>169</v>
+      </c>
+      <c r="I29" t="s">
+        <v>170</v>
+      </c>
+      <c r="J29" t="s">
+        <v>86</v>
+      </c>
+      <c r="K29" t="s">
+        <v>166</v>
+      </c>
+      <c r="L29" t="s">
+        <v>171</v>
+      </c>
+      <c r="M29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" t="s">
+        <v>161</v>
+      </c>
+      <c r="E30" t="s">
+        <v>154</v>
+      </c>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s">
+        <v>173</v>
+      </c>
+      <c r="H30" t="s">
+        <v>175</v>
+      </c>
+      <c r="I30" t="s">
+        <v>176</v>
+      </c>
+      <c r="J30" t="s">
+        <v>177</v>
+      </c>
+      <c r="K30" t="s">
+        <v>172</v>
+      </c>
+      <c r="L30" t="s">
+        <v>178</v>
+      </c>
+      <c r="M30" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" t="s">
+        <v>154</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s">
+        <v>131</v>
+      </c>
+      <c r="H31" t="s">
+        <v>137</v>
+      </c>
+      <c r="I31" t="s">
+        <v>138</v>
+      </c>
+      <c r="J31" t="s">
+        <v>34</v>
+      </c>
+      <c r="K31" t="s">
+        <v>130</v>
+      </c>
+      <c r="L31" t="s">
+        <v>140</v>
+      </c>
+      <c r="M31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" t="s">
+        <v>161</v>
+      </c>
+      <c r="E32" t="s">
+        <v>154</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s">
+        <v>142</v>
+      </c>
+      <c r="H32" t="s">
+        <v>181</v>
+      </c>
+      <c r="I32" t="s">
+        <v>182</v>
+      </c>
+      <c r="J32" t="s">
+        <v>86</v>
+      </c>
+      <c r="K32" t="s">
+        <v>179</v>
+      </c>
+      <c r="L32" t="s">
+        <v>142</v>
+      </c>
+      <c r="M32" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>156</v>
+      </c>
+      <c r="C33" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" t="s">
+        <v>161</v>
+      </c>
+      <c r="E33" t="s">
+        <v>154</v>
+      </c>
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s">
+        <v>142</v>
+      </c>
+      <c r="H33" t="s">
+        <v>181</v>
+      </c>
+      <c r="I33" t="s">
+        <v>184</v>
+      </c>
+      <c r="J33" t="s">
+        <v>46</v>
+      </c>
+      <c r="K33" t="s">
+        <v>179</v>
+      </c>
+      <c r="L33" t="s">
+        <v>142</v>
+      </c>
+      <c r="M33" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>188</v>
+      </c>
+      <c r="C34" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" t="s">
+        <v>191</v>
+      </c>
+      <c r="E34" t="s">
+        <v>186</v>
+      </c>
+      <c r="F34" t="s">
+        <v>187</v>
+      </c>
+      <c r="G34" t="s">
+        <v>185</v>
+      </c>
+      <c r="H34" t="s">
+        <v>189</v>
+      </c>
+      <c r="I34" t="s">
+        <v>190</v>
+      </c>
+      <c r="J34" t="s">
+        <v>46</v>
+      </c>
+      <c r="K34" t="s">
+        <v>90</v>
+      </c>
+      <c r="L34" t="s">
+        <v>178</v>
+      </c>
+      <c r="M34" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>188</v>
+      </c>
+      <c r="C35" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" t="s">
+        <v>191</v>
+      </c>
+      <c r="E35" t="s">
+        <v>186</v>
+      </c>
+      <c r="F35" t="s">
+        <v>187</v>
+      </c>
+      <c r="G35" t="s">
+        <v>192</v>
+      </c>
+      <c r="H35" t="s">
+        <v>194</v>
+      </c>
+      <c r="I35" t="s">
+        <v>195</v>
+      </c>
+      <c r="J35" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" t="s">
+        <v>152</v>
+      </c>
+      <c r="M35" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>188</v>
+      </c>
+      <c r="C36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" t="s">
+        <v>191</v>
+      </c>
+      <c r="E36" t="s">
+        <v>186</v>
+      </c>
+      <c r="F36" t="s">
+        <v>187</v>
+      </c>
+      <c r="G36" t="s">
+        <v>197</v>
+      </c>
+      <c r="H36" t="s">
+        <v>199</v>
+      </c>
+      <c r="I36" t="s">
+        <v>200</v>
+      </c>
+      <c r="J36" t="s">
+        <v>46</v>
+      </c>
+      <c r="K36" t="s">
+        <v>196</v>
+      </c>
+      <c r="L36" t="s">
+        <v>171</v>
+      </c>
+      <c r="M36" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>188</v>
+      </c>
+      <c r="C37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" t="s">
+        <v>191</v>
+      </c>
+      <c r="E37" t="s">
+        <v>186</v>
+      </c>
+      <c r="F37" t="s">
+        <v>187</v>
+      </c>
+      <c r="G37" t="s">
+        <v>142</v>
+      </c>
+      <c r="H37" t="s">
+        <v>202</v>
+      </c>
+      <c r="I37" t="s">
+        <v>203</v>
+      </c>
+      <c r="J37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K37" t="s">
+        <v>108</v>
+      </c>
+      <c r="L37" t="s">
+        <v>152</v>
+      </c>
+      <c r="M37" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" t="s">
+        <v>209</v>
+      </c>
+      <c r="E38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" t="s">
+        <v>142</v>
+      </c>
+      <c r="H38" t="s">
+        <v>206</v>
+      </c>
+      <c r="I38" t="s">
+        <v>207</v>
+      </c>
+      <c r="J38" t="s">
+        <v>34</v>
+      </c>
+      <c r="K38" t="s">
+        <v>204</v>
+      </c>
+      <c r="L38" t="s">
+        <v>208</v>
+      </c>
+      <c r="M38" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" t="s">
+        <v>209</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s">
+        <v>131</v>
+      </c>
+      <c r="H39" t="s">
+        <v>137</v>
+      </c>
+      <c r="I39" t="s">
+        <v>138</v>
+      </c>
+      <c r="J39" t="s">
+        <v>34</v>
+      </c>
+      <c r="K39" t="s">
+        <v>196</v>
+      </c>
+      <c r="L39" t="s">
+        <v>140</v>
+      </c>
+      <c r="M39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s">
+        <v>211</v>
+      </c>
+      <c r="C40" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" t="s">
+        <v>212</v>
+      </c>
+      <c r="E40" t="s">
+        <v>210</v>
+      </c>
+      <c r="F40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" t="s">
+        <v>192</v>
+      </c>
+      <c r="H40" t="s">
+        <v>194</v>
+      </c>
+      <c r="I40" t="s">
+        <v>195</v>
+      </c>
+      <c r="J40" t="s">
+        <v>46</v>
+      </c>
+      <c r="K40" t="s">
+        <v>13</v>
+      </c>
+      <c r="L40" t="s">
+        <v>152</v>
+      </c>
+      <c r="M40" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>211</v>
+      </c>
+      <c r="C41" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E41" t="s">
+        <v>210</v>
+      </c>
+      <c r="F41" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" t="s">
+        <v>213</v>
+      </c>
+      <c r="H41" t="s">
+        <v>215</v>
+      </c>
+      <c r="I41" t="s">
+        <v>216</v>
+      </c>
+      <c r="J41" t="s">
+        <v>217</v>
+      </c>
+      <c r="K41" t="s">
+        <v>196</v>
+      </c>
+      <c r="L41" t="s">
+        <v>171</v>
+      </c>
+      <c r="M41" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>211</v>
+      </c>
+      <c r="C42" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42" t="s">
+        <v>212</v>
+      </c>
+      <c r="E42" t="s">
+        <v>210</v>
+      </c>
+      <c r="F42" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s">
+        <v>218</v>
+      </c>
+      <c r="H42" t="s">
+        <v>220</v>
+      </c>
+      <c r="I42" t="s">
+        <v>221</v>
+      </c>
+      <c r="J42" t="s">
+        <v>23</v>
+      </c>
+      <c r="K42" t="s">
+        <v>196</v>
+      </c>
+      <c r="L42" t="s">
+        <v>178</v>
+      </c>
+      <c r="M42" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>223</v>
+      </c>
+      <c r="C43" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43" t="s">
+        <v>224</v>
+      </c>
+      <c r="E43" t="s">
+        <v>222</v>
+      </c>
+      <c r="F43" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" t="s">
+        <v>167</v>
+      </c>
+      <c r="H43" t="s">
+        <v>169</v>
+      </c>
+      <c r="I43" t="s">
+        <v>170</v>
+      </c>
+      <c r="J43" t="s">
+        <v>90</v>
+      </c>
+      <c r="K43" t="s">
+        <v>166</v>
+      </c>
+      <c r="L43" t="s">
+        <v>171</v>
+      </c>
+      <c r="M43" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>223</v>
+      </c>
+      <c r="C44" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" t="s">
+        <v>224</v>
+      </c>
+      <c r="E44" t="s">
+        <v>222</v>
+      </c>
+      <c r="F44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" t="s">
+        <v>142</v>
+      </c>
+      <c r="H44" t="s">
+        <v>181</v>
+      </c>
+      <c r="I44" t="s">
+        <v>182</v>
+      </c>
+      <c r="J44" t="s">
+        <v>90</v>
+      </c>
+      <c r="K44" t="s">
+        <v>179</v>
+      </c>
+      <c r="L44" t="s">
+        <v>142</v>
+      </c>
+      <c r="M44" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
+        <v>223</v>
+      </c>
+      <c r="C45" t="s">
+        <v>132</v>
+      </c>
+      <c r="D45" t="s">
+        <v>224</v>
+      </c>
+      <c r="E45" t="s">
+        <v>222</v>
+      </c>
+      <c r="F45" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" t="s">
+        <v>142</v>
+      </c>
+      <c r="H45" t="s">
+        <v>181</v>
+      </c>
+      <c r="I45" t="s">
+        <v>184</v>
+      </c>
+      <c r="J45" t="s">
+        <v>46</v>
+      </c>
+      <c r="K45" t="s">
+        <v>179</v>
+      </c>
+      <c r="L45" t="s">
+        <v>142</v>
+      </c>
+      <c r="M45" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s">
+        <v>226</v>
+      </c>
+      <c r="C46" t="s">
+        <v>132</v>
+      </c>
+      <c r="D46" t="s">
+        <v>227</v>
+      </c>
+      <c r="E46" t="s">
+        <v>225</v>
+      </c>
+      <c r="F46" t="s">
+        <v>134</v>
+      </c>
+      <c r="G46" t="s">
+        <v>192</v>
+      </c>
+      <c r="H46" t="s">
+        <v>194</v>
+      </c>
+      <c r="I46" t="s">
+        <v>195</v>
+      </c>
+      <c r="J46" t="s">
+        <v>153</v>
+      </c>
+      <c r="K46" t="s">
+        <v>13</v>
+      </c>
+      <c r="L46" t="s">
+        <v>152</v>
+      </c>
+      <c r="M46" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" t="s">
+        <v>226</v>
+      </c>
+      <c r="C47" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" t="s">
+        <v>227</v>
+      </c>
+      <c r="E47" t="s">
+        <v>225</v>
+      </c>
+      <c r="F47" t="s">
+        <v>134</v>
+      </c>
+      <c r="G47" t="s">
+        <v>229</v>
+      </c>
+      <c r="H47" t="s">
+        <v>231</v>
+      </c>
+      <c r="I47" t="s">
+        <v>232</v>
+      </c>
+      <c r="J47" t="s">
+        <v>233</v>
+      </c>
+      <c r="K47" t="s">
+        <v>228</v>
+      </c>
+      <c r="L47" t="s">
+        <v>234</v>
+      </c>
+      <c r="M47" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
+        <v>226</v>
+      </c>
+      <c r="C48" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" t="s">
+        <v>227</v>
+      </c>
+      <c r="E48" t="s">
+        <v>225</v>
+      </c>
+      <c r="F48" t="s">
+        <v>134</v>
+      </c>
+      <c r="G48" t="s">
+        <v>235</v>
+      </c>
+      <c r="H48" t="s">
+        <v>237</v>
+      </c>
+      <c r="I48" t="s">
+        <v>238</v>
+      </c>
+      <c r="J48" t="s">
+        <v>68</v>
+      </c>
+      <c r="K48" t="s">
+        <v>124</v>
+      </c>
+      <c r="L48" t="s">
+        <v>140</v>
+      </c>
+      <c r="M48" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" t="s">
+        <v>226</v>
+      </c>
+      <c r="C49" t="s">
+        <v>132</v>
+      </c>
+      <c r="D49" t="s">
+        <v>227</v>
+      </c>
+      <c r="E49" t="s">
+        <v>225</v>
+      </c>
+      <c r="F49" t="s">
+        <v>134</v>
+      </c>
+      <c r="G49" t="s">
+        <v>239</v>
+      </c>
+      <c r="H49" t="s">
+        <v>241</v>
+      </c>
+      <c r="I49" t="s">
+        <v>242</v>
+      </c>
+      <c r="J49" t="s">
+        <v>46</v>
+      </c>
+      <c r="K49" t="s">
+        <v>172</v>
+      </c>
+      <c r="L49" t="s">
+        <v>243</v>
+      </c>
+      <c r="M49" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
+        <v>247</v>
+      </c>
+      <c r="C50" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" t="s">
+        <v>252</v>
+      </c>
+      <c r="E50" t="s">
+        <v>246</v>
+      </c>
+      <c r="F50" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" t="s">
+        <v>245</v>
+      </c>
+      <c r="H50" t="s">
+        <v>248</v>
+      </c>
+      <c r="I50" t="s">
+        <v>249</v>
+      </c>
+      <c r="J50" t="s">
+        <v>250</v>
+      </c>
+      <c r="K50" t="s">
+        <v>244</v>
+      </c>
+      <c r="L50" t="s">
+        <v>251</v>
+      </c>
+      <c r="M50" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
